--- a/assets/findings/2024-02-26-findings.xlsx
+++ b/assets/findings/2024-02-26-findings.xlsx
@@ -639,8 +639,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -672,8 +674,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>1</v>
+      <c r="U2" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -738,8 +742,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M3" t="b">
-        <v>0</v>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -771,8 +777,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U3" t="b">
-        <v>1</v>
+      <c r="U3" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -837,8 +845,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M4" t="b">
-        <v>0</v>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -870,8 +880,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U4" t="b">
-        <v>1</v>
+      <c r="U4" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -936,8 +948,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M5" t="b">
-        <v>0</v>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -969,8 +983,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U5" t="b">
-        <v>0</v>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -1035,8 +1051,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M6" t="b">
-        <v>0</v>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -1068,8 +1086,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U6" t="b">
-        <v>0</v>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
@@ -1134,8 +1154,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M7" t="b">
-        <v>0</v>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -1167,8 +1189,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U7" t="b">
-        <v>0</v>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
@@ -1233,8 +1257,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M8" t="b">
-        <v>0</v>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1266,8 +1292,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U8" t="b">
-        <v>0</v>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
@@ -1332,8 +1360,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M9" t="b">
-        <v>0</v>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1365,8 +1395,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U9" t="b">
-        <v>0</v>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
@@ -1431,8 +1463,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M10" t="b">
-        <v>0</v>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1464,8 +1498,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U10" t="b">
-        <v>0</v>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
@@ -1530,8 +1566,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M11" t="b">
-        <v>0</v>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1563,8 +1601,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U11" t="b">
-        <v>0</v>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
@@ -1629,8 +1669,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M12" t="b">
-        <v>0</v>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1662,8 +1704,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U12" t="b">
-        <v>0</v>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
@@ -1728,8 +1772,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M13" t="b">
-        <v>0</v>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1761,8 +1807,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U13" t="b">
-        <v>0</v>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
@@ -1827,8 +1875,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M14" t="b">
-        <v>0</v>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1860,8 +1910,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U14" t="b">
-        <v>0</v>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
@@ -1926,8 +1978,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M15" t="b">
-        <v>1</v>
+      <c r="M15" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="N15" t="n">
         <v>107244</v>
@@ -1962,8 +2016,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U15" t="b">
-        <v>0</v>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
@@ -2028,8 +2084,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M16" t="b">
-        <v>0</v>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O16" s="1" t="inlineStr">
         <is>
@@ -2061,8 +2119,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U16" t="b">
-        <v>0</v>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
@@ -2314,8 +2374,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -2347,8 +2409,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>0</v>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -2572,8 +2636,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -2605,8 +2671,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>0</v>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -2671,8 +2739,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M3" t="b">
-        <v>0</v>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -2704,8 +2774,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U3" t="b">
-        <v>1</v>
+      <c r="U3" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -2770,8 +2842,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M4" t="b">
-        <v>0</v>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -2803,8 +2877,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U4" t="b">
-        <v>0</v>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -2869,8 +2945,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M5" t="b">
-        <v>0</v>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -2902,8 +2980,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U5" t="b">
-        <v>0</v>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -2968,8 +3048,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M6" t="b">
-        <v>0</v>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -3001,8 +3083,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U6" t="b">
-        <v>0</v>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
@@ -3067,8 +3151,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M7" t="b">
-        <v>0</v>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -3100,8 +3186,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U7" t="b">
-        <v>0</v>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
@@ -3166,8 +3254,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M8" t="b">
-        <v>0</v>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -3199,8 +3289,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U8" t="b">
-        <v>0</v>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
@@ -3265,8 +3357,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M9" t="b">
-        <v>0</v>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -3298,8 +3392,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U9" t="b">
-        <v>0</v>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
@@ -3364,8 +3460,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M10" t="b">
-        <v>0</v>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -3397,8 +3495,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U10" t="b">
-        <v>0</v>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
@@ -3463,8 +3563,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M11" t="b">
-        <v>0</v>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -3496,8 +3598,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U11" t="b">
-        <v>0</v>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
@@ -3562,8 +3666,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M12" t="b">
-        <v>0</v>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -3595,8 +3701,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U12" t="b">
-        <v>0</v>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
@@ -3661,8 +3769,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M13" t="b">
-        <v>0</v>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -3694,8 +3804,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U13" t="b">
-        <v>0</v>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
@@ -3760,8 +3872,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M14" t="b">
-        <v>0</v>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -3793,8 +3907,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U14" t="b">
-        <v>0</v>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
@@ -3859,8 +3975,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M15" t="b">
-        <v>0</v>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -3892,8 +4010,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U15" t="b">
-        <v>0</v>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
@@ -3958,8 +4078,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M16" t="b">
-        <v>1</v>
+      <c r="M16" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="N16" t="n">
         <v>171169</v>
@@ -3994,8 +4116,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U16" t="b">
-        <v>0</v>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
@@ -4060,8 +4184,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M17" t="b">
-        <v>1</v>
+      <c r="M17" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="N17" t="n">
         <v>6549112</v>
@@ -4096,8 +4222,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U17" t="b">
-        <v>1</v>
+      <c r="U17" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
@@ -4162,8 +4290,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M18" t="b">
-        <v>1</v>
+      <c r="M18" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="N18" t="n">
         <v>13573338</v>
@@ -4198,8 +4328,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U18" t="b">
-        <v>1</v>
+      <c r="U18" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
@@ -4264,8 +4396,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M19" t="b">
-        <v>1</v>
+      <c r="M19" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="N19" t="n">
         <v>2368234</v>
@@ -4300,8 +4434,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U19" t="b">
-        <v>1</v>
+      <c r="U19" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
@@ -4366,8 +4502,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M20" t="b">
-        <v>0</v>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O20" s="1" t="inlineStr">
         <is>
@@ -4399,8 +4537,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U20" t="b">
-        <v>1</v>
+      <c r="U20" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
@@ -4465,8 +4605,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M21" t="b">
-        <v>0</v>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O21" s="1" t="inlineStr">
         <is>
@@ -4498,8 +4640,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U21" t="b">
-        <v>1</v>
+      <c r="U21" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
@@ -4564,8 +4708,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M22" t="b">
-        <v>0</v>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O22" s="1" t="inlineStr">
         <is>
@@ -4597,8 +4743,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U22" t="b">
-        <v>1</v>
+      <c r="U22" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
@@ -4663,8 +4811,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M23" t="b">
-        <v>0</v>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O23" s="1" t="inlineStr">
         <is>
@@ -4696,8 +4846,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U23" t="b">
-        <v>1</v>
+      <c r="U23" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
@@ -4762,8 +4914,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M24" t="b">
-        <v>0</v>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O24" s="1" t="inlineStr">
         <is>
@@ -4795,8 +4949,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U24" t="b">
-        <v>0</v>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
@@ -4861,8 +5017,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M25" t="b">
-        <v>0</v>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O25" s="1" t="inlineStr">
         <is>
@@ -4894,8 +5052,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U25" t="b">
-        <v>1</v>
+      <c r="U25" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
@@ -4960,8 +5120,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M26" t="b">
-        <v>0</v>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O26" s="1" t="inlineStr">
         <is>
@@ -4993,8 +5155,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U26" t="b">
-        <v>1</v>
+      <c r="U26" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
@@ -5059,8 +5223,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M27" t="b">
-        <v>0</v>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O27" s="1" t="inlineStr">
         <is>
@@ -5092,8 +5258,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U27" t="b">
-        <v>1</v>
+      <c r="U27" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
@@ -5158,8 +5326,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M28" t="b">
-        <v>0</v>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O28" s="1" t="inlineStr">
         <is>
@@ -5191,8 +5361,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U28" t="b">
-        <v>1</v>
+      <c r="U28" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
@@ -5257,8 +5429,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M29" t="b">
-        <v>0</v>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O29" s="1" t="inlineStr">
         <is>
@@ -5290,8 +5464,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U29" t="b">
-        <v>1</v>
+      <c r="U29" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
@@ -5356,8 +5532,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M30" t="b">
-        <v>0</v>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -5389,8 +5567,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U30" t="b">
-        <v>0</v>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
@@ -5455,8 +5635,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M31" t="b">
-        <v>0</v>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -5488,8 +5670,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U31" t="b">
-        <v>0</v>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
@@ -5554,8 +5738,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M32" t="b">
-        <v>0</v>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -5587,8 +5773,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U32" t="b">
-        <v>0</v>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
@@ -5653,8 +5841,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M33" t="b">
-        <v>0</v>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -5686,8 +5876,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U33" t="b">
-        <v>0</v>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V33" t="inlineStr">
         <is>
@@ -5752,8 +5944,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M34" t="b">
-        <v>0</v>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -5785,8 +5979,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U34" t="b">
-        <v>0</v>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V34" t="inlineStr">
         <is>
@@ -5851,8 +6047,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M35" t="b">
-        <v>0</v>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -5884,8 +6082,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U35" t="b">
-        <v>0</v>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
@@ -5950,8 +6150,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M36" t="b">
-        <v>0</v>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -5983,8 +6185,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U36" t="b">
-        <v>0</v>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
@@ -6049,8 +6253,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M37" t="b">
-        <v>0</v>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O37" t="inlineStr">
         <is>
@@ -6082,8 +6288,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U37" t="b">
-        <v>0</v>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V37" t="inlineStr">
         <is>
@@ -6148,8 +6356,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M38" t="b">
-        <v>0</v>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O38" t="inlineStr">
         <is>
@@ -6181,8 +6391,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U38" t="b">
-        <v>0</v>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
@@ -6478,8 +6690,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -6511,8 +6725,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>0</v>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -6577,8 +6793,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M3" t="b">
-        <v>0</v>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -6610,8 +6828,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U3" t="b">
-        <v>0</v>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -6837,8 +7057,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -6870,8 +7092,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>0</v>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -6936,8 +7160,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M3" t="b">
-        <v>0</v>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -6969,8 +7195,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U3" t="b">
-        <v>0</v>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -7035,8 +7263,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M4" t="b">
-        <v>0</v>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -7068,8 +7298,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U4" t="b">
-        <v>0</v>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -7134,8 +7366,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M5" t="b">
-        <v>0</v>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -7167,8 +7401,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U5" t="b">
-        <v>0</v>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -7233,8 +7469,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M6" t="b">
-        <v>0</v>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -7266,8 +7504,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U6" t="b">
-        <v>0</v>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
@@ -7332,8 +7572,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M7" t="b">
-        <v>0</v>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -7365,8 +7607,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U7" t="b">
-        <v>0</v>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
@@ -7431,8 +7675,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M8" t="b">
-        <v>0</v>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O8" s="1" t="inlineStr">
         <is>
@@ -7464,8 +7710,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U8" t="b">
-        <v>0</v>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
@@ -7530,8 +7778,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M9" t="b">
-        <v>0</v>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O9" s="1" t="inlineStr">
         <is>
@@ -7563,8 +7813,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U9" t="b">
-        <v>1</v>
+      <c r="U9" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
@@ -7629,8 +7881,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M10" t="b">
-        <v>0</v>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O10" s="1" t="inlineStr">
         <is>
@@ -7662,8 +7916,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U10" t="b">
-        <v>1</v>
+      <c r="U10" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
@@ -7728,8 +7984,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M11" t="b">
-        <v>0</v>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -7761,8 +8019,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U11" t="b">
-        <v>0</v>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
@@ -7827,8 +8087,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M12" t="b">
-        <v>0</v>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -7860,8 +8122,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U12" t="b">
-        <v>0</v>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
@@ -7926,8 +8190,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M13" t="b">
-        <v>0</v>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -7959,8 +8225,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U13" t="b">
-        <v>0</v>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
@@ -8025,8 +8293,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M14" t="b">
-        <v>0</v>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -8058,8 +8328,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U14" t="b">
-        <v>0</v>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
@@ -8124,8 +8396,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M15" t="b">
-        <v>0</v>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -8157,8 +8431,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U15" t="b">
-        <v>0</v>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
@@ -8223,8 +8499,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M16" t="b">
-        <v>0</v>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -8256,8 +8534,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U16" t="b">
-        <v>0</v>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
@@ -8322,8 +8602,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M17" t="b">
-        <v>0</v>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -8355,8 +8637,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U17" t="b">
-        <v>0</v>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
@@ -8421,8 +8705,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M18" t="b">
-        <v>0</v>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -8454,8 +8740,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U18" t="b">
-        <v>0</v>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
@@ -8520,8 +8808,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M19" t="b">
-        <v>0</v>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -8553,8 +8843,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U19" t="b">
-        <v>1</v>
+      <c r="U19" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
@@ -8619,8 +8911,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M20" t="b">
-        <v>0</v>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -8652,8 +8946,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U20" t="b">
-        <v>1</v>
+      <c r="U20" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
@@ -8718,8 +9014,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M21" t="b">
-        <v>0</v>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -8751,8 +9049,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U21" t="b">
-        <v>1</v>
+      <c r="U21" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
@@ -8817,8 +9117,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M22" t="b">
-        <v>0</v>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -8850,8 +9152,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U22" t="b">
-        <v>0</v>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
@@ -8916,8 +9220,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M23" t="b">
-        <v>0</v>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -8949,8 +9255,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U23" t="b">
-        <v>0</v>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
@@ -9015,8 +9323,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M24" t="b">
-        <v>0</v>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -9048,8 +9358,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U24" t="b">
-        <v>0</v>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
@@ -9114,8 +9426,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M25" t="b">
-        <v>0</v>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O25" s="1" t="inlineStr">
         <is>
@@ -9147,8 +9461,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U25" t="b">
-        <v>0</v>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
@@ -9213,8 +9529,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M26" t="b">
-        <v>0</v>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O26" s="1" t="inlineStr">
         <is>
@@ -9246,8 +9564,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U26" t="b">
-        <v>0</v>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
@@ -9312,8 +9632,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M27" t="b">
-        <v>0</v>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O27" s="1" t="inlineStr">
         <is>
@@ -9345,8 +9667,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U27" t="b">
-        <v>0</v>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
@@ -9411,8 +9735,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M28" t="b">
-        <v>0</v>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O28" s="1" t="inlineStr">
         <is>
@@ -9444,8 +9770,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U28" t="b">
-        <v>0</v>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
@@ -9721,8 +10049,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>1</v>
+      <c r="M2" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="N2" t="n">
         <v>171169</v>
@@ -9757,8 +10087,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>0</v>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -9982,8 +10314,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -10015,8 +10349,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>0</v>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -10081,8 +10417,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M3" t="b">
-        <v>0</v>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -10114,8 +10452,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U3" t="b">
-        <v>0</v>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -10180,8 +10520,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M4" t="b">
-        <v>0</v>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -10213,8 +10555,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U4" t="b">
-        <v>0</v>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -10279,8 +10623,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M5" t="b">
-        <v>0</v>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -10312,8 +10658,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U5" t="b">
-        <v>0</v>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -10378,8 +10726,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M6" t="b">
-        <v>0</v>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -10411,8 +10761,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U6" t="b">
-        <v>0</v>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
@@ -10477,8 +10829,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M7" t="b">
-        <v>0</v>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -10510,8 +10864,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U7" t="b">
-        <v>0</v>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
@@ -10576,8 +10932,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M8" t="b">
-        <v>0</v>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -10609,8 +10967,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U8" t="b">
-        <v>1</v>
+      <c r="U8" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
@@ -10675,8 +11035,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M9" t="b">
-        <v>0</v>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -10708,8 +11070,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U9" t="b">
-        <v>1</v>
+      <c r="U9" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
@@ -10774,8 +11138,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M10" t="b">
-        <v>0</v>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -10807,8 +11173,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U10" t="b">
-        <v>0</v>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
@@ -10873,8 +11241,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M11" t="b">
-        <v>0</v>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -10906,8 +11276,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U11" t="b">
-        <v>1</v>
+      <c r="U11" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
@@ -11149,8 +11521,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -11182,8 +11556,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>1</v>
+      <c r="U2" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -11407,8 +11783,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" s="1" t="inlineStr">
         <is>
@@ -11440,8 +11818,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>1</v>
+      <c r="U2" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -11506,8 +11886,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M3" t="b">
-        <v>1</v>
+      <c r="M3" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="N3" t="n">
         <v>1584974</v>
@@ -11542,8 +11924,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U3" t="b">
-        <v>0</v>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -11608,8 +11992,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M4" t="b">
-        <v>1</v>
+      <c r="M4" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="N4" t="n">
         <v>1584974</v>
@@ -11644,8 +12030,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U4" t="b">
-        <v>0</v>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -11710,8 +12098,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M5" t="b">
-        <v>1</v>
+      <c r="M5" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="N5" t="n">
         <v>1584974</v>
@@ -11746,8 +12136,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U5" t="b">
-        <v>0</v>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -11812,8 +12204,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M6" t="b">
-        <v>1</v>
+      <c r="M6" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="N6" t="n">
         <v>107244</v>
@@ -11848,8 +12242,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U6" t="b">
-        <v>0</v>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
@@ -11914,8 +12310,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M7" t="b">
-        <v>0</v>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -11947,8 +12345,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U7" t="b">
-        <v>0</v>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
@@ -12013,8 +12413,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M8" t="b">
-        <v>1</v>
+      <c r="M8" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="N8" t="n">
         <v>98893</v>
@@ -12049,8 +12451,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U8" t="b">
-        <v>0</v>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
@@ -12115,8 +12519,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M9" t="b">
-        <v>0</v>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -12148,8 +12554,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U9" t="b">
-        <v>0</v>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
@@ -12214,8 +12622,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M10" t="b">
-        <v>0</v>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -12247,8 +12657,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U10" t="b">
-        <v>0</v>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
@@ -12313,8 +12725,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M11" t="b">
-        <v>0</v>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -12346,8 +12760,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U11" t="b">
-        <v>0</v>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
@@ -12412,8 +12828,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M12" t="b">
-        <v>0</v>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -12445,8 +12863,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U12" t="b">
-        <v>0</v>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
@@ -12511,8 +12931,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M13" t="b">
-        <v>0</v>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -12544,8 +12966,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U13" t="b">
-        <v>0</v>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
@@ -12610,8 +13034,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M14" t="b">
-        <v>0</v>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -12643,8 +13069,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U14" t="b">
-        <v>0</v>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
@@ -12709,8 +13137,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M15" t="b">
-        <v>0</v>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -12742,8 +13172,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U15" t="b">
-        <v>0</v>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
@@ -12808,8 +13240,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M16" t="b">
-        <v>0</v>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -12841,8 +13275,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U16" t="b">
-        <v>0</v>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
@@ -12907,8 +13343,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M17" t="b">
-        <v>0</v>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O17" s="1" t="inlineStr">
         <is>
@@ -12940,8 +13378,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U17" t="b">
-        <v>1</v>
+      <c r="U17" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
@@ -13006,8 +13446,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M18" t="b">
-        <v>0</v>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O18" s="1" t="inlineStr">
         <is>
@@ -13039,8 +13481,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U18" t="b">
-        <v>1</v>
+      <c r="U18" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
@@ -13105,8 +13549,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M19" t="b">
-        <v>0</v>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O19" s="1" t="inlineStr">
         <is>
@@ -13138,8 +13584,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U19" t="b">
-        <v>1</v>
+      <c r="U19" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
@@ -13204,8 +13652,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M20" t="b">
-        <v>0</v>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O20" s="1" t="inlineStr">
         <is>
@@ -13237,8 +13687,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U20" t="b">
-        <v>1</v>
+      <c r="U20" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
@@ -13303,8 +13755,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M21" t="b">
-        <v>0</v>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O21" s="1" t="inlineStr">
         <is>
@@ -13336,8 +13790,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U21" t="b">
-        <v>1</v>
+      <c r="U21" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
@@ -13402,8 +13858,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M22" t="b">
-        <v>0</v>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O22" s="1" t="inlineStr">
         <is>
@@ -13435,8 +13893,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U22" t="b">
-        <v>1</v>
+      <c r="U22" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
@@ -13501,8 +13961,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M23" t="b">
-        <v>0</v>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O23" s="1" t="inlineStr">
         <is>
@@ -13534,8 +13996,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U23" t="b">
-        <v>1</v>
+      <c r="U23" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
@@ -13600,8 +14064,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M24" t="b">
-        <v>0</v>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O24" s="1" t="inlineStr">
         <is>
@@ -13633,8 +14099,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U24" t="b">
-        <v>1</v>
+      <c r="U24" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
@@ -13699,8 +14167,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M25" t="b">
-        <v>0</v>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O25" s="1" t="inlineStr">
         <is>
@@ -13732,8 +14202,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U25" t="b">
-        <v>1</v>
+      <c r="U25" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
@@ -13798,8 +14270,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M26" t="b">
-        <v>0</v>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O26" s="1" t="inlineStr">
         <is>
@@ -13831,8 +14305,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U26" t="b">
-        <v>1</v>
+      <c r="U26" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
@@ -13897,8 +14373,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M27" t="b">
-        <v>0</v>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O27" s="1" t="inlineStr">
         <is>
@@ -13930,8 +14408,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U27" t="b">
-        <v>0</v>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
@@ -13996,8 +14476,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M28" t="b">
-        <v>0</v>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O28" s="1" t="inlineStr">
         <is>
@@ -14029,8 +14511,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U28" t="b">
-        <v>1</v>
+      <c r="U28" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
@@ -14095,8 +14579,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M29" t="b">
-        <v>0</v>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O29" s="1" t="inlineStr">
         <is>
@@ -14128,8 +14614,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U29" t="b">
-        <v>1</v>
+      <c r="U29" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
@@ -14194,8 +14682,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M30" t="b">
-        <v>0</v>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O30" s="1" t="inlineStr">
         <is>
@@ -14227,8 +14717,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U30" t="b">
-        <v>1</v>
+      <c r="U30" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
@@ -14293,8 +14785,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M31" t="b">
-        <v>0</v>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O31" s="1" t="inlineStr">
         <is>
@@ -14326,8 +14820,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U31" t="b">
-        <v>1</v>
+      <c r="U31" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
@@ -14392,8 +14888,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M32" t="b">
-        <v>0</v>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O32" s="1" t="inlineStr">
         <is>
@@ -14425,8 +14923,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U32" t="b">
-        <v>1</v>
+      <c r="U32" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
@@ -14491,8 +14991,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M33" t="b">
-        <v>0</v>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O33" s="1" t="inlineStr">
         <is>
@@ -14524,8 +15026,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U33" t="b">
-        <v>0</v>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V33" t="inlineStr">
         <is>
@@ -14590,8 +15094,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M34" t="b">
-        <v>0</v>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O34" s="1" t="inlineStr">
         <is>
@@ -14623,8 +15129,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U34" t="b">
-        <v>0</v>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V34" t="inlineStr">
         <is>
@@ -14689,8 +15197,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M35" t="b">
-        <v>0</v>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O35" s="1" t="inlineStr">
         <is>
@@ -14722,8 +15232,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U35" t="b">
-        <v>0</v>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
@@ -14788,8 +15300,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M36" t="b">
-        <v>0</v>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O36" s="1" t="inlineStr">
         <is>
@@ -14821,8 +15335,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U36" t="b">
-        <v>0</v>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
@@ -15114,8 +15630,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -15147,8 +15665,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>1</v>
+      <c r="U2" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -15213,8 +15733,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M3" t="b">
-        <v>0</v>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -15246,8 +15768,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U3" t="b">
-        <v>1</v>
+      <c r="U3" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -15312,8 +15836,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M4" t="b">
-        <v>0</v>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -15345,8 +15871,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U4" t="b">
-        <v>1</v>
+      <c r="U4" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -15411,8 +15939,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M5" t="b">
-        <v>0</v>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -15444,8 +15974,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U5" t="b">
-        <v>0</v>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -15510,8 +16042,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M6" t="b">
-        <v>0</v>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -15543,8 +16077,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U6" t="b">
-        <v>0</v>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
@@ -15609,8 +16145,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M7" t="b">
-        <v>0</v>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -15642,8 +16180,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U7" t="b">
-        <v>0</v>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
@@ -15708,8 +16248,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M8" t="b">
-        <v>0</v>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -15741,8 +16283,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U8" t="b">
-        <v>0</v>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
@@ -15807,8 +16351,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M9" t="b">
-        <v>0</v>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -15840,8 +16386,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U9" t="b">
-        <v>0</v>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
@@ -15906,8 +16454,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M10" t="b">
-        <v>0</v>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -15939,8 +16489,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U10" t="b">
-        <v>0</v>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
@@ -16005,8 +16557,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M11" t="b">
-        <v>0</v>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -16038,8 +16592,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U11" t="b">
-        <v>0</v>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
@@ -16104,8 +16660,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M12" t="b">
-        <v>0</v>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -16137,8 +16695,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U12" t="b">
-        <v>0</v>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
@@ -16203,8 +16763,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M13" t="b">
-        <v>0</v>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -16236,8 +16798,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U13" t="b">
-        <v>0</v>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
@@ -16302,8 +16866,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M14" t="b">
-        <v>0</v>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -16335,8 +16901,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U14" t="b">
-        <v>0</v>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
@@ -16401,8 +16969,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M15" t="b">
-        <v>0</v>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -16434,8 +17004,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U15" t="b">
-        <v>0</v>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
@@ -16500,8 +17072,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M16" t="b">
-        <v>0</v>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -16533,8 +17107,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U16" t="b">
-        <v>0</v>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
@@ -16599,8 +17175,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M17" t="b">
-        <v>0</v>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -16632,8 +17210,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U17" t="b">
-        <v>0</v>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
@@ -16698,8 +17278,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M18" t="b">
-        <v>0</v>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -16731,8 +17313,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U18" t="b">
-        <v>0</v>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
@@ -16797,8 +17381,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M19" t="b">
-        <v>0</v>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -16830,8 +17416,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U19" t="b">
-        <v>0</v>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
@@ -16896,8 +17484,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M20" t="b">
-        <v>0</v>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -16929,8 +17519,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U20" t="b">
-        <v>0</v>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
@@ -16995,8 +17587,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M21" t="b">
-        <v>0</v>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -17028,8 +17622,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U21" t="b">
-        <v>0</v>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
@@ -17094,8 +17690,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M22" t="b">
-        <v>0</v>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -17127,8 +17725,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U22" t="b">
-        <v>0</v>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
@@ -17193,8 +17793,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M23" t="b">
-        <v>0</v>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -17226,8 +17828,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U23" t="b">
-        <v>0</v>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
@@ -17292,8 +17896,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M24" t="b">
-        <v>0</v>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O24" s="1" t="inlineStr">
         <is>
@@ -17325,8 +17931,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U24" t="b">
-        <v>0</v>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
@@ -17391,8 +17999,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M25" t="b">
-        <v>0</v>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O25" s="1" t="inlineStr">
         <is>
@@ -17424,8 +18034,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U25" t="b">
-        <v>0</v>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
@@ -17490,8 +18102,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M26" t="b">
-        <v>0</v>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O26" s="1" t="inlineStr">
         <is>
@@ -17523,8 +18137,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U26" t="b">
-        <v>0</v>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
@@ -17589,8 +18205,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M27" t="b">
-        <v>0</v>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O27" s="1" t="inlineStr">
         <is>
@@ -17622,8 +18240,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U27" t="b">
-        <v>0</v>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
@@ -17688,8 +18308,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M28" t="b">
-        <v>0</v>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -17721,8 +18343,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U28" t="b">
-        <v>0</v>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
@@ -17787,8 +18411,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M29" t="b">
-        <v>0</v>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -17820,8 +18446,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U29" t="b">
-        <v>0</v>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
@@ -17886,8 +18514,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M30" t="b">
-        <v>0</v>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -17919,8 +18549,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U30" t="b">
-        <v>0</v>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
@@ -17985,8 +18617,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M31" t="b">
-        <v>0</v>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -18018,8 +18652,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U31" t="b">
-        <v>0</v>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
@@ -18084,8 +18720,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M32" t="b">
-        <v>0</v>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -18117,8 +18755,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U32" t="b">
-        <v>0</v>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
@@ -18183,8 +18823,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M33" t="b">
-        <v>0</v>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -18216,8 +18858,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U33" t="b">
-        <v>0</v>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V33" t="inlineStr">
         <is>
@@ -18282,8 +18926,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M34" t="b">
-        <v>0</v>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -18315,8 +18961,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U34" t="b">
-        <v>1</v>
+      <c r="U34" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V34" t="inlineStr">
         <is>
@@ -18381,8 +19029,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M35" t="b">
-        <v>0</v>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -18414,8 +19064,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U35" t="b">
-        <v>1</v>
+      <c r="U35" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
@@ -18480,8 +19132,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M36" t="b">
-        <v>0</v>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -18513,8 +19167,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U36" t="b">
-        <v>1</v>
+      <c r="U36" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
@@ -18579,8 +19235,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M37" t="b">
-        <v>0</v>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O37" t="inlineStr">
         <is>
@@ -18612,8 +19270,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U37" t="b">
-        <v>0</v>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V37" t="inlineStr">
         <is>
@@ -18678,8 +19338,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M38" t="b">
-        <v>0</v>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O38" t="inlineStr">
         <is>
@@ -18711,8 +19373,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U38" t="b">
-        <v>0</v>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
@@ -18777,8 +19441,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M39" t="b">
-        <v>0</v>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -18810,8 +19476,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U39" t="b">
-        <v>0</v>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
@@ -18876,8 +19544,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M40" t="b">
-        <v>0</v>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O40" t="inlineStr">
         <is>
@@ -18909,8 +19579,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U40" t="b">
-        <v>0</v>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
@@ -18975,8 +19647,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M41" t="b">
-        <v>0</v>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O41" t="inlineStr">
         <is>
@@ -19008,8 +19682,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U41" t="b">
-        <v>0</v>
+      <c r="U41" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V41" t="inlineStr">
         <is>
@@ -19074,8 +19750,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M42" t="b">
-        <v>0</v>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -19107,8 +19785,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U42" t="b">
-        <v>0</v>
+      <c r="U42" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
@@ -19173,8 +19853,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M43" t="b">
-        <v>0</v>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -19206,8 +19888,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U43" t="b">
-        <v>0</v>
+      <c r="U43" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
@@ -19272,8 +19956,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M44" t="b">
-        <v>0</v>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O44" s="1" t="inlineStr">
         <is>
@@ -19305,8 +19991,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U44" t="b">
-        <v>0</v>
+      <c r="U44" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
@@ -19371,8 +20059,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M45" t="b">
-        <v>0</v>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O45" t="inlineStr">
         <is>
@@ -19404,8 +20094,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U45" t="b">
-        <v>0</v>
+      <c r="U45" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
@@ -19470,8 +20162,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M46" t="b">
-        <v>0</v>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O46" t="inlineStr">
         <is>
@@ -19503,8 +20197,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U46" t="b">
-        <v>0</v>
+      <c r="U46" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V46" t="inlineStr">
         <is>
@@ -19569,8 +20265,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M47" t="b">
-        <v>0</v>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O47" t="inlineStr">
         <is>
@@ -19602,8 +20300,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U47" t="b">
-        <v>0</v>
+      <c r="U47" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V47" t="inlineStr">
         <is>
@@ -19668,8 +20368,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M48" t="b">
-        <v>0</v>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O48" t="inlineStr">
         <is>
@@ -19701,8 +20403,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U48" t="b">
-        <v>1</v>
+      <c r="U48" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
@@ -19767,8 +20471,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M49" t="b">
-        <v>0</v>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O49" t="inlineStr">
         <is>
@@ -19800,8 +20506,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U49" t="b">
-        <v>1</v>
+      <c r="U49" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V49" t="inlineStr">
         <is>
@@ -19866,8 +20574,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M50" t="b">
-        <v>0</v>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O50" t="inlineStr">
         <is>
@@ -19899,8 +20609,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U50" t="b">
-        <v>1</v>
+      <c r="U50" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V50" t="inlineStr">
         <is>
@@ -19965,8 +20677,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M51" t="b">
-        <v>0</v>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O51" t="inlineStr">
         <is>
@@ -19998,8 +20712,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U51" t="b">
-        <v>1</v>
+      <c r="U51" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V51" t="inlineStr">
         <is>
@@ -20064,8 +20780,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M52" t="b">
-        <v>0</v>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O52" t="inlineStr">
         <is>
@@ -20097,8 +20815,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U52" t="b">
-        <v>0</v>
+      <c r="U52" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
@@ -20163,8 +20883,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M53" t="b">
-        <v>0</v>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O53" t="inlineStr">
         <is>
@@ -20196,8 +20918,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U53" t="b">
-        <v>0</v>
+      <c r="U53" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V53" t="inlineStr">
         <is>
@@ -20262,8 +20986,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M54" t="b">
-        <v>0</v>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O54" t="inlineStr">
         <is>
@@ -20295,8 +21021,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U54" t="b">
-        <v>0</v>
+      <c r="U54" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V54" t="inlineStr">
         <is>
@@ -20361,8 +21089,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M55" t="b">
-        <v>0</v>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O55" t="inlineStr">
         <is>
@@ -20394,8 +21124,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U55" t="b">
-        <v>0</v>
+      <c r="U55" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V55" t="inlineStr">
         <is>
@@ -20460,8 +21192,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M56" t="b">
-        <v>0</v>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O56" t="inlineStr">
         <is>
@@ -20493,8 +21227,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U56" t="b">
-        <v>0</v>
+      <c r="U56" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V56" t="inlineStr">
         <is>
@@ -20559,8 +21295,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M57" t="b">
-        <v>0</v>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O57" t="inlineStr">
         <is>
@@ -20592,8 +21330,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U57" t="b">
-        <v>0</v>
+      <c r="U57" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V57" t="inlineStr">
         <is>
@@ -20658,8 +21398,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M58" t="b">
-        <v>0</v>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O58" t="inlineStr">
         <is>
@@ -20691,8 +21433,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U58" t="b">
-        <v>1</v>
+      <c r="U58" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V58" t="inlineStr">
         <is>
@@ -20757,8 +21501,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M59" t="b">
-        <v>0</v>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O59" t="inlineStr">
         <is>
@@ -20790,8 +21536,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U59" t="b">
-        <v>1</v>
+      <c r="U59" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V59" t="inlineStr">
         <is>
@@ -20856,8 +21604,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M60" t="b">
-        <v>0</v>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O60" t="inlineStr">
         <is>
@@ -20889,8 +21639,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U60" t="b">
-        <v>1</v>
+      <c r="U60" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V60" t="inlineStr">
         <is>
@@ -20955,8 +21707,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M61" t="b">
-        <v>0</v>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O61" t="inlineStr">
         <is>
@@ -20988,8 +21742,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U61" t="b">
-        <v>0</v>
+      <c r="U61" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V61" t="inlineStr">
         <is>
@@ -21054,8 +21810,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M62" t="b">
-        <v>0</v>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O62" t="inlineStr">
         <is>
@@ -21087,8 +21845,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U62" t="b">
-        <v>0</v>
+      <c r="U62" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V62" t="inlineStr">
         <is>
@@ -21153,8 +21913,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M63" t="b">
-        <v>0</v>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O63" t="inlineStr">
         <is>
@@ -21186,8 +21948,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U63" t="b">
-        <v>0</v>
+      <c r="U63" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V63" t="inlineStr">
         <is>
@@ -21252,8 +22016,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M64" t="b">
-        <v>0</v>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O64" t="inlineStr">
         <is>
@@ -21285,8 +22051,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U64" t="b">
-        <v>0</v>
+      <c r="U64" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V64" t="inlineStr">
         <is>
@@ -21351,8 +22119,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M65" t="b">
-        <v>0</v>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O65" t="inlineStr">
         <is>
@@ -21384,8 +22154,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U65" t="b">
-        <v>0</v>
+      <c r="U65" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V65" t="inlineStr">
         <is>
@@ -21450,8 +22222,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M66" t="b">
-        <v>0</v>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O66" t="inlineStr">
         <is>
@@ -21483,8 +22257,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U66" t="b">
-        <v>0</v>
+      <c r="U66" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V66" t="inlineStr">
         <is>
@@ -21549,8 +22325,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M67" t="b">
-        <v>0</v>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O67" t="inlineStr">
         <is>
@@ -21582,8 +22360,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U67" t="b">
-        <v>0</v>
+      <c r="U67" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V67" t="inlineStr">
         <is>
@@ -21648,8 +22428,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M68" t="b">
-        <v>0</v>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O68" t="inlineStr">
         <is>
@@ -21681,8 +22463,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U68" t="b">
-        <v>0</v>
+      <c r="U68" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V68" t="inlineStr">
         <is>
@@ -21747,8 +22531,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M69" t="b">
-        <v>0</v>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O69" t="inlineStr">
         <is>
@@ -21780,8 +22566,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U69" t="b">
-        <v>0</v>
+      <c r="U69" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V69" t="inlineStr">
         <is>
@@ -21846,8 +22634,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M70" t="b">
-        <v>0</v>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O70" t="inlineStr">
         <is>
@@ -21879,8 +22669,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U70" t="b">
-        <v>0</v>
+      <c r="U70" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V70" t="inlineStr">
         <is>
@@ -21945,8 +22737,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M71" t="b">
-        <v>0</v>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O71" t="inlineStr">
         <is>
@@ -21978,8 +22772,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U71" t="b">
-        <v>0</v>
+      <c r="U71" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V71" t="inlineStr">
         <is>
@@ -22044,8 +22840,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M72" t="b">
-        <v>0</v>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O72" t="inlineStr">
         <is>
@@ -22077,8 +22875,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U72" t="b">
-        <v>0</v>
+      <c r="U72" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V72" t="inlineStr">
         <is>
@@ -22143,8 +22943,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M73" t="b">
-        <v>0</v>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O73" t="inlineStr">
         <is>
@@ -22176,8 +22978,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U73" t="b">
-        <v>0</v>
+      <c r="U73" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V73" t="inlineStr">
         <is>
@@ -22242,8 +23046,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M74" t="b">
-        <v>0</v>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O74" t="inlineStr">
         <is>
@@ -22275,8 +23081,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U74" t="b">
-        <v>0</v>
+      <c r="U74" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V74" t="inlineStr">
         <is>
@@ -22341,8 +23149,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M75" t="b">
-        <v>0</v>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O75" t="inlineStr">
         <is>
@@ -22374,8 +23184,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U75" t="b">
-        <v>0</v>
+      <c r="U75" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V75" t="inlineStr">
         <is>
@@ -22440,8 +23252,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M76" t="b">
-        <v>0</v>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O76" t="inlineStr">
         <is>
@@ -22473,8 +23287,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U76" t="b">
-        <v>0</v>
+      <c r="U76" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V76" t="inlineStr">
         <is>
@@ -22539,8 +23355,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M77" t="b">
-        <v>0</v>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O77" t="inlineStr">
         <is>
@@ -22572,8 +23390,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U77" t="b">
-        <v>0</v>
+      <c r="U77" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V77" t="inlineStr">
         <is>
@@ -22638,8 +23458,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M78" t="b">
-        <v>0</v>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O78" t="inlineStr">
         <is>
@@ -22671,8 +23493,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U78" t="b">
-        <v>0</v>
+      <c r="U78" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V78" t="inlineStr">
         <is>
@@ -22737,8 +23561,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M79" t="b">
-        <v>0</v>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O79" t="inlineStr">
         <is>
@@ -22770,8 +23596,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U79" t="b">
-        <v>0</v>
+      <c r="U79" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V79" t="inlineStr">
         <is>
@@ -22836,8 +23664,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M80" t="b">
-        <v>0</v>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O80" t="inlineStr">
         <is>
@@ -22869,8 +23699,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U80" t="b">
-        <v>0</v>
+      <c r="U80" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V80" t="inlineStr">
         <is>
@@ -22935,8 +23767,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M81" t="b">
-        <v>0</v>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O81" t="inlineStr">
         <is>
@@ -22968,8 +23802,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U81" t="b">
-        <v>0</v>
+      <c r="U81" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V81" t="inlineStr">
         <is>
@@ -23034,8 +23870,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M82" t="b">
-        <v>0</v>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O82" t="inlineStr">
         <is>
@@ -23067,8 +23905,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U82" t="b">
-        <v>0</v>
+      <c r="U82" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V82" t="inlineStr">
         <is>
@@ -23133,8 +23973,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M83" t="b">
-        <v>0</v>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O83" t="inlineStr">
         <is>
@@ -23166,8 +24008,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U83" t="b">
-        <v>0</v>
+      <c r="U83" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V83" t="inlineStr">
         <is>
@@ -23232,8 +24076,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M84" t="b">
-        <v>0</v>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O84" t="inlineStr">
         <is>
@@ -23265,8 +24111,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U84" t="b">
-        <v>0</v>
+      <c r="U84" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V84" t="inlineStr">
         <is>
@@ -23331,8 +24179,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M85" t="b">
-        <v>0</v>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O85" t="inlineStr">
         <is>
@@ -23364,8 +24214,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U85" t="b">
-        <v>0</v>
+      <c r="U85" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V85" t="inlineStr">
         <is>
@@ -23430,8 +24282,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M86" t="b">
-        <v>0</v>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O86" t="inlineStr">
         <is>
@@ -23463,8 +24317,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U86" t="b">
-        <v>0</v>
+      <c r="U86" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V86" t="inlineStr">
         <is>
@@ -23529,8 +24385,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M87" t="b">
-        <v>0</v>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O87" t="inlineStr">
         <is>
@@ -23562,8 +24420,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U87" t="b">
-        <v>0</v>
+      <c r="U87" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V87" t="inlineStr">
         <is>
@@ -23957,8 +24817,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -23990,8 +24852,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>0</v>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -24056,8 +24920,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M3" t="b">
-        <v>0</v>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -24089,8 +24955,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U3" t="b">
-        <v>1</v>
+      <c r="U3" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -24155,8 +25023,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M4" t="b">
-        <v>0</v>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -24188,8 +25058,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U4" t="b">
-        <v>0</v>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -24254,8 +25126,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M5" t="b">
-        <v>0</v>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -24287,8 +25161,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U5" t="b">
-        <v>0</v>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -24353,8 +25229,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M6" t="b">
-        <v>0</v>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -24386,8 +25264,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U6" t="b">
-        <v>0</v>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
@@ -24452,8 +25332,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M7" t="b">
-        <v>0</v>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -24485,8 +25367,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U7" t="b">
-        <v>0</v>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
@@ -24551,8 +25435,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M8" t="b">
-        <v>0</v>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -24584,8 +25470,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U8" t="b">
-        <v>0</v>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
@@ -24650,8 +25538,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M9" t="b">
-        <v>0</v>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -24683,8 +25573,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U9" t="b">
-        <v>0</v>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
@@ -24749,8 +25641,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M10" t="b">
-        <v>0</v>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -24782,8 +25676,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U10" t="b">
-        <v>0</v>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
@@ -24848,8 +25744,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M11" t="b">
-        <v>0</v>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -24881,8 +25779,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U11" t="b">
-        <v>0</v>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
@@ -24947,8 +25847,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M12" t="b">
-        <v>0</v>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -24980,8 +25882,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U12" t="b">
-        <v>0</v>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
@@ -25046,8 +25950,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M13" t="b">
-        <v>0</v>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -25079,8 +25985,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U13" t="b">
-        <v>0</v>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
@@ -25145,8 +26053,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M14" t="b">
-        <v>0</v>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -25178,8 +26088,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U14" t="b">
-        <v>0</v>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
@@ -25244,8 +26156,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M15" t="b">
-        <v>0</v>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -25277,8 +26191,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U15" t="b">
-        <v>0</v>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
@@ -25343,8 +26259,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M16" t="b">
-        <v>1</v>
+      <c r="M16" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="N16" t="n">
         <v>6549112</v>
@@ -25379,8 +26297,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U16" t="b">
-        <v>1</v>
+      <c r="U16" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
@@ -25445,8 +26365,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M17" t="b">
-        <v>1</v>
+      <c r="M17" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="N17" t="n">
         <v>13573338</v>
@@ -25481,8 +26403,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U17" t="b">
-        <v>1</v>
+      <c r="U17" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
@@ -25547,8 +26471,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M18" t="b">
-        <v>1</v>
+      <c r="M18" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="N18" t="n">
         <v>2368234</v>
@@ -25583,8 +26509,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U18" t="b">
-        <v>1</v>
+      <c r="U18" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
@@ -25840,8 +26768,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -25873,8 +26803,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>0</v>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -25939,8 +26871,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M3" t="b">
-        <v>0</v>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -25972,8 +26906,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U3" t="b">
-        <v>0</v>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -26038,8 +26974,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M4" t="b">
-        <v>0</v>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -26071,8 +27009,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U4" t="b">
-        <v>0</v>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -26137,8 +27077,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M5" t="b">
-        <v>0</v>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -26170,8 +27112,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U5" t="b">
-        <v>0</v>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -26236,8 +27180,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M6" t="b">
-        <v>0</v>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -26269,8 +27215,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U6" t="b">
-        <v>0</v>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
@@ -26335,8 +27283,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M7" t="b">
-        <v>0</v>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -26368,8 +27318,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U7" t="b">
-        <v>0</v>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
@@ -26434,8 +27386,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M8" t="b">
-        <v>0</v>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -26467,8 +27421,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U8" t="b">
-        <v>1</v>
+      <c r="U8" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
@@ -26533,8 +27489,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M9" t="b">
-        <v>0</v>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -26566,8 +27524,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U9" t="b">
-        <v>1</v>
+      <c r="U9" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
@@ -26632,8 +27592,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M10" t="b">
-        <v>0</v>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -26665,8 +27627,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U10" t="b">
-        <v>0</v>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
@@ -26731,8 +27695,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M11" t="b">
-        <v>0</v>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -26764,8 +27730,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U11" t="b">
-        <v>1</v>
+      <c r="U11" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
@@ -27007,8 +27975,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -27040,8 +28010,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>0</v>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -27106,8 +28078,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M3" t="b">
-        <v>1</v>
+      <c r="M3" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="N3" t="n">
         <v>98893</v>
@@ -27142,8 +28116,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U3" t="b">
-        <v>0</v>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -27208,8 +28184,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M4" t="b">
-        <v>0</v>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O4" s="1" t="inlineStr">
         <is>
@@ -27241,8 +28219,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U4" t="b">
-        <v>1</v>
+      <c r="U4" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -27307,8 +28287,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M5" t="b">
-        <v>0</v>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O5" s="1" t="inlineStr">
         <is>
@@ -27340,8 +28322,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U5" t="b">
-        <v>1</v>
+      <c r="U5" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -27406,8 +28390,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M6" t="b">
-        <v>0</v>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O6" s="1" t="inlineStr">
         <is>
@@ -27439,8 +28425,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U6" t="b">
-        <v>1</v>
+      <c r="U6" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
@@ -27505,8 +28493,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M7" t="b">
-        <v>0</v>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O7" s="1" t="inlineStr">
         <is>
@@ -27538,8 +28528,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U7" t="b">
-        <v>1</v>
+      <c r="U7" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
@@ -27604,8 +28596,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M8" t="b">
-        <v>0</v>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O8" s="1" t="inlineStr">
         <is>
@@ -27637,8 +28631,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U8" t="b">
-        <v>1</v>
+      <c r="U8" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
@@ -27703,8 +28699,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M9" t="b">
-        <v>0</v>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O9" s="1" t="inlineStr">
         <is>
@@ -27736,8 +28734,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U9" t="b">
-        <v>1</v>
+      <c r="U9" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
@@ -27975,8 +28975,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -28008,8 +29010,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>1</v>
+      <c r="U2" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -28233,8 +29237,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -28266,8 +29272,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>0</v>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -28491,8 +29499,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" s="1" t="inlineStr">
         <is>
@@ -28524,8 +29534,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>1</v>
+      <c r="U2" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -28590,8 +29602,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M3" t="b">
-        <v>1</v>
+      <c r="M3" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="N3" t="n">
         <v>1584974</v>
@@ -28626,8 +29640,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U3" t="b">
-        <v>0</v>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -28692,8 +29708,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M4" t="b">
-        <v>1</v>
+      <c r="M4" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="N4" t="n">
         <v>1584974</v>
@@ -28728,8 +29746,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U4" t="b">
-        <v>0</v>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -28794,8 +29814,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M5" t="b">
-        <v>1</v>
+      <c r="M5" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="N5" t="n">
         <v>1584974</v>
@@ -28830,8 +29852,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U5" t="b">
-        <v>0</v>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -28896,8 +29920,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M6" t="b">
-        <v>0</v>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -28929,8 +29955,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U6" t="b">
-        <v>0</v>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
@@ -28995,8 +30023,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M7" t="b">
-        <v>0</v>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -29028,8 +30058,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U7" t="b">
-        <v>0</v>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
@@ -29094,8 +30126,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M8" t="b">
-        <v>0</v>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O8" s="1" t="inlineStr">
         <is>
@@ -29127,8 +30161,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U8" t="b">
-        <v>0</v>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
@@ -29193,8 +30229,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M9" t="b">
-        <v>0</v>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O9" s="1" t="inlineStr">
         <is>
@@ -29226,8 +30264,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U9" t="b">
-        <v>0</v>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
@@ -29292,8 +30332,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M10" t="b">
-        <v>0</v>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O10" s="1" t="inlineStr">
         <is>
@@ -29325,8 +30367,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U10" t="b">
-        <v>0</v>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
@@ -29391,8 +30435,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M11" t="b">
-        <v>0</v>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O11" s="1" t="inlineStr">
         <is>
@@ -29424,8 +30470,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U11" t="b">
-        <v>0</v>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
@@ -29667,8 +30715,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -29700,8 +30750,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>0</v>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -29766,8 +30818,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M3" t="b">
-        <v>0</v>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O3" s="1" t="inlineStr">
         <is>
@@ -29799,8 +30853,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U3" t="b">
-        <v>0</v>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -30026,8 +31082,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -30059,8 +31117,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>0</v>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -30125,8 +31185,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M3" t="b">
-        <v>0</v>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -30158,8 +31220,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U3" t="b">
-        <v>0</v>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -30385,8 +31449,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -30418,8 +31484,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>0</v>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -30484,8 +31552,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M3" t="b">
-        <v>0</v>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -30517,8 +31587,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U3" t="b">
-        <v>0</v>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -30583,8 +31655,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M4" t="b">
-        <v>0</v>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -30616,8 +31690,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U4" t="b">
-        <v>0</v>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -30682,8 +31758,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M5" t="b">
-        <v>0</v>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -30715,8 +31793,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U5" t="b">
-        <v>0</v>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -30781,8 +31861,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M6" t="b">
-        <v>0</v>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -30814,8 +31896,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U6" t="b">
-        <v>0</v>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
@@ -30880,8 +31964,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M7" t="b">
-        <v>0</v>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -30913,8 +31999,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U7" t="b">
-        <v>0</v>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
@@ -30979,8 +32067,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M8" t="b">
-        <v>0</v>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -31012,8 +32102,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U8" t="b">
-        <v>0</v>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
@@ -31078,8 +32170,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M9" t="b">
-        <v>0</v>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -31111,8 +32205,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U9" t="b">
-        <v>0</v>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
@@ -31177,8 +32273,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M10" t="b">
-        <v>0</v>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -31210,8 +32308,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U10" t="b">
-        <v>0</v>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
@@ -31276,8 +32376,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M11" t="b">
-        <v>0</v>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -31309,8 +32411,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U11" t="b">
-        <v>0</v>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
@@ -31375,8 +32479,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M12" t="b">
-        <v>0</v>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -31408,8 +32514,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U12" t="b">
-        <v>0</v>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
@@ -31474,8 +32582,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M13" t="b">
-        <v>0</v>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -31507,8 +32617,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U13" t="b">
-        <v>0</v>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
@@ -31573,8 +32685,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M14" t="b">
-        <v>0</v>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -31606,8 +32720,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U14" t="b">
-        <v>0</v>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
@@ -31672,8 +32788,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M15" t="b">
-        <v>0</v>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -31705,8 +32823,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U15" t="b">
-        <v>0</v>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
@@ -31771,8 +32891,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M16" t="b">
-        <v>0</v>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -31804,8 +32926,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U16" t="b">
-        <v>0</v>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
@@ -31870,8 +32994,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M17" t="b">
-        <v>0</v>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -31903,8 +33029,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U17" t="b">
-        <v>0</v>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
@@ -31969,8 +33097,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M18" t="b">
-        <v>0</v>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O18" s="1" t="inlineStr">
         <is>
@@ -32002,8 +33132,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U18" t="b">
-        <v>0</v>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
@@ -32068,8 +33200,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M19" t="b">
-        <v>0</v>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O19" s="1" t="inlineStr">
         <is>
@@ -32101,8 +33235,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U19" t="b">
-        <v>0</v>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
@@ -32167,8 +33303,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M20" t="b">
-        <v>0</v>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O20" s="1" t="inlineStr">
         <is>
@@ -32200,8 +33338,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U20" t="b">
-        <v>0</v>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
@@ -32266,8 +33406,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M21" t="b">
-        <v>0</v>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O21" s="1" t="inlineStr">
         <is>
@@ -32299,8 +33441,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U21" t="b">
-        <v>0</v>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
@@ -32365,8 +33509,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M22" t="b">
-        <v>0</v>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -32398,8 +33544,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U22" t="b">
-        <v>0</v>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
@@ -32464,8 +33612,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M23" t="b">
-        <v>0</v>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -32497,8 +33647,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U23" t="b">
-        <v>0</v>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
@@ -32563,8 +33715,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M24" t="b">
-        <v>0</v>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -32596,8 +33750,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U24" t="b">
-        <v>0</v>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
@@ -32662,8 +33818,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M25" t="b">
-        <v>0</v>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -32695,8 +33853,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U25" t="b">
-        <v>0</v>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
@@ -32761,8 +33921,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M26" t="b">
-        <v>0</v>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -32794,8 +33956,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U26" t="b">
-        <v>0</v>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
@@ -32860,8 +34024,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M27" t="b">
-        <v>0</v>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -32893,8 +34059,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U27" t="b">
-        <v>0</v>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
@@ -32959,8 +34127,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M28" t="b">
-        <v>0</v>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -32992,8 +34162,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U28" t="b">
-        <v>1</v>
+      <c r="U28" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
@@ -33058,8 +34230,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M29" t="b">
-        <v>0</v>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -33091,8 +34265,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U29" t="b">
-        <v>1</v>
+      <c r="U29" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
@@ -33157,8 +34333,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M30" t="b">
-        <v>0</v>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -33190,8 +34368,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U30" t="b">
-        <v>1</v>
+      <c r="U30" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
@@ -33256,8 +34436,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M31" t="b">
-        <v>0</v>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -33289,8 +34471,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U31" t="b">
-        <v>0</v>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
@@ -33355,8 +34539,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M32" t="b">
-        <v>0</v>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -33388,8 +34574,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U32" t="b">
-        <v>0</v>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
@@ -33454,8 +34642,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M33" t="b">
-        <v>0</v>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -33487,8 +34677,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U33" t="b">
-        <v>0</v>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V33" t="inlineStr">
         <is>
@@ -33553,8 +34745,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M34" t="b">
-        <v>0</v>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -33586,8 +34780,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U34" t="b">
-        <v>0</v>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V34" t="inlineStr">
         <is>
@@ -33652,8 +34848,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M35" t="b">
-        <v>0</v>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -33685,8 +34883,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U35" t="b">
-        <v>0</v>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
@@ -33751,8 +34951,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M36" t="b">
-        <v>0</v>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -33784,8 +34986,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U36" t="b">
-        <v>0</v>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
@@ -33850,8 +35054,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M37" t="b">
-        <v>0</v>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O37" t="inlineStr">
         <is>
@@ -33883,8 +35089,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U37" t="b">
-        <v>0</v>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V37" t="inlineStr">
         <is>
@@ -33949,8 +35157,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M38" t="b">
-        <v>0</v>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O38" t="inlineStr">
         <is>
@@ -33982,8 +35192,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U38" t="b">
-        <v>0</v>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
@@ -34048,8 +35260,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M39" t="b">
-        <v>0</v>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -34081,8 +35295,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U39" t="b">
-        <v>0</v>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
@@ -34147,8 +35363,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M40" t="b">
-        <v>0</v>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O40" t="inlineStr">
         <is>
@@ -34180,8 +35398,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U40" t="b">
-        <v>0</v>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
@@ -34246,8 +35466,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M41" t="b">
-        <v>0</v>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O41" t="inlineStr">
         <is>
@@ -34279,8 +35501,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U41" t="b">
-        <v>1</v>
+      <c r="U41" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V41" t="inlineStr">
         <is>
@@ -34345,8 +35569,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M42" t="b">
-        <v>0</v>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -34378,8 +35604,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U42" t="b">
-        <v>1</v>
+      <c r="U42" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
@@ -34444,8 +35672,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M43" t="b">
-        <v>0</v>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -34477,8 +35707,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U43" t="b">
-        <v>1</v>
+      <c r="U43" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
@@ -34543,8 +35775,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M44" t="b">
-        <v>0</v>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O44" t="inlineStr">
         <is>
@@ -34576,8 +35810,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U44" t="b">
-        <v>1</v>
+      <c r="U44" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
@@ -34642,8 +35878,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M45" t="b">
-        <v>0</v>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O45" t="inlineStr">
         <is>
@@ -34675,8 +35913,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U45" t="b">
-        <v>0</v>
+      <c r="U45" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
@@ -34741,8 +35981,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M46" t="b">
-        <v>0</v>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O46" t="inlineStr">
         <is>
@@ -34774,8 +36016,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U46" t="b">
-        <v>0</v>
+      <c r="U46" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V46" t="inlineStr">
         <is>
@@ -34840,8 +36084,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M47" t="b">
-        <v>0</v>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O47" t="inlineStr">
         <is>
@@ -34873,8 +36119,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U47" t="b">
-        <v>0</v>
+      <c r="U47" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V47" t="inlineStr">
         <is>
@@ -34939,8 +36187,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M48" t="b">
-        <v>0</v>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O48" t="inlineStr">
         <is>
@@ -34972,8 +36222,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U48" t="b">
-        <v>0</v>
+      <c r="U48" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
@@ -35038,8 +36290,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M49" t="b">
-        <v>0</v>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O49" t="inlineStr">
         <is>
@@ -35071,8 +36325,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U49" t="b">
-        <v>0</v>
+      <c r="U49" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V49" t="inlineStr">
         <is>
@@ -35137,8 +36393,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M50" t="b">
-        <v>0</v>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O50" t="inlineStr">
         <is>
@@ -35170,8 +36428,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U50" t="b">
-        <v>0</v>
+      <c r="U50" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V50" t="inlineStr">
         <is>
@@ -35236,8 +36496,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M51" t="b">
-        <v>0</v>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O51" t="inlineStr">
         <is>
@@ -35269,8 +36531,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U51" t="b">
-        <v>1</v>
+      <c r="U51" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V51" t="inlineStr">
         <is>
@@ -35335,8 +36599,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M52" t="b">
-        <v>0</v>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O52" t="inlineStr">
         <is>
@@ -35368,8 +36634,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U52" t="b">
-        <v>1</v>
+      <c r="U52" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
@@ -35434,8 +36702,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M53" t="b">
-        <v>0</v>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O53" t="inlineStr">
         <is>
@@ -35467,8 +36737,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U53" t="b">
-        <v>1</v>
+      <c r="U53" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V53" t="inlineStr">
         <is>
@@ -35533,8 +36805,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M54" t="b">
-        <v>0</v>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O54" t="inlineStr">
         <is>
@@ -35566,8 +36840,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U54" t="b">
-        <v>0</v>
+      <c r="U54" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V54" t="inlineStr">
         <is>
@@ -35632,8 +36908,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M55" t="b">
-        <v>0</v>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O55" t="inlineStr">
         <is>
@@ -35665,8 +36943,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U55" t="b">
-        <v>0</v>
+      <c r="U55" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V55" t="inlineStr">
         <is>
@@ -35731,8 +37011,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M56" t="b">
-        <v>0</v>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O56" t="inlineStr">
         <is>
@@ -35764,8 +37046,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U56" t="b">
-        <v>0</v>
+      <c r="U56" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V56" t="inlineStr">
         <is>
@@ -35830,8 +37114,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M57" t="b">
-        <v>0</v>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O57" t="inlineStr">
         <is>
@@ -35863,8 +37149,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U57" t="b">
-        <v>0</v>
+      <c r="U57" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V57" t="inlineStr">
         <is>
@@ -35929,8 +37217,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M58" t="b">
-        <v>0</v>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O58" t="inlineStr">
         <is>
@@ -35962,8 +37252,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U58" t="b">
-        <v>0</v>
+      <c r="U58" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V58" t="inlineStr">
         <is>
@@ -36028,8 +37320,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M59" t="b">
-        <v>0</v>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O59" t="inlineStr">
         <is>
@@ -36061,8 +37355,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U59" t="b">
-        <v>0</v>
+      <c r="U59" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V59" t="inlineStr">
         <is>
@@ -36127,8 +37423,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M60" t="b">
-        <v>0</v>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O60" t="inlineStr">
         <is>
@@ -36160,8 +37458,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U60" t="b">
-        <v>0</v>
+      <c r="U60" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V60" t="inlineStr">
         <is>
@@ -36226,8 +37526,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M61" t="b">
-        <v>0</v>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O61" t="inlineStr">
         <is>
@@ -36259,8 +37561,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U61" t="b">
-        <v>0</v>
+      <c r="U61" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V61" t="inlineStr">
         <is>
@@ -36325,8 +37629,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M62" t="b">
-        <v>0</v>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O62" t="inlineStr">
         <is>
@@ -36358,8 +37664,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U62" t="b">
-        <v>0</v>
+      <c r="U62" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V62" t="inlineStr">
         <is>
@@ -36424,8 +37732,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M63" t="b">
-        <v>0</v>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O63" t="inlineStr">
         <is>
@@ -36457,8 +37767,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U63" t="b">
-        <v>0</v>
+      <c r="U63" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V63" t="inlineStr">
         <is>
@@ -36523,8 +37835,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M64" t="b">
-        <v>0</v>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O64" t="inlineStr">
         <is>
@@ -36556,8 +37870,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U64" t="b">
-        <v>0</v>
+      <c r="U64" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V64" t="inlineStr">
         <is>
@@ -36622,8 +37938,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M65" t="b">
-        <v>0</v>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O65" t="inlineStr">
         <is>
@@ -36655,8 +37973,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U65" t="b">
-        <v>0</v>
+      <c r="U65" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V65" t="inlineStr">
         <is>
@@ -36721,8 +38041,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M66" t="b">
-        <v>0</v>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O66" t="inlineStr">
         <is>
@@ -36754,8 +38076,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U66" t="b">
-        <v>0</v>
+      <c r="U66" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V66" t="inlineStr">
         <is>
@@ -36820,8 +38144,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M67" t="b">
-        <v>0</v>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O67" t="inlineStr">
         <is>
@@ -36853,8 +38179,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U67" t="b">
-        <v>0</v>
+      <c r="U67" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V67" t="inlineStr">
         <is>
@@ -36919,8 +38247,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M68" t="b">
-        <v>0</v>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O68" t="inlineStr">
         <is>
@@ -36952,8 +38282,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U68" t="b">
-        <v>0</v>
+      <c r="U68" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V68" t="inlineStr">
         <is>
@@ -37018,8 +38350,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M69" t="b">
-        <v>0</v>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O69" t="inlineStr">
         <is>
@@ -37051,8 +38385,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U69" t="b">
-        <v>0</v>
+      <c r="U69" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V69" t="inlineStr">
         <is>
@@ -37117,8 +38453,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M70" t="b">
-        <v>0</v>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O70" t="inlineStr">
         <is>
@@ -37150,8 +38488,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U70" t="b">
-        <v>0</v>
+      <c r="U70" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V70" t="inlineStr">
         <is>
@@ -37216,8 +38556,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M71" t="b">
-        <v>0</v>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O71" t="inlineStr">
         <is>
@@ -37249,8 +38591,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U71" t="b">
-        <v>0</v>
+      <c r="U71" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V71" t="inlineStr">
         <is>
@@ -37315,8 +38659,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M72" t="b">
-        <v>0</v>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O72" t="inlineStr">
         <is>
@@ -37348,8 +38694,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U72" t="b">
-        <v>0</v>
+      <c r="U72" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V72" t="inlineStr">
         <is>
@@ -37414,8 +38762,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M73" t="b">
-        <v>0</v>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O73" t="inlineStr">
         <is>
@@ -37447,8 +38797,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U73" t="b">
-        <v>0</v>
+      <c r="U73" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V73" t="inlineStr">
         <is>
@@ -37513,8 +38865,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M74" t="b">
-        <v>0</v>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O74" t="inlineStr">
         <is>
@@ -37546,8 +38900,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U74" t="b">
-        <v>0</v>
+      <c r="U74" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V74" t="inlineStr">
         <is>
@@ -37612,8 +38968,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M75" t="b">
-        <v>0</v>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O75" t="inlineStr">
         <is>
@@ -37645,8 +39003,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U75" t="b">
-        <v>0</v>
+      <c r="U75" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V75" t="inlineStr">
         <is>
@@ -37711,8 +39071,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M76" t="b">
-        <v>0</v>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O76" t="inlineStr">
         <is>
@@ -37744,8 +39106,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U76" t="b">
-        <v>0</v>
+      <c r="U76" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V76" t="inlineStr">
         <is>
@@ -37810,8 +39174,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M77" t="b">
-        <v>0</v>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O77" t="inlineStr">
         <is>
@@ -37843,8 +39209,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U77" t="b">
-        <v>0</v>
+      <c r="U77" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V77" t="inlineStr">
         <is>
@@ -37909,8 +39277,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M78" t="b">
-        <v>0</v>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O78" t="inlineStr">
         <is>
@@ -37942,8 +39312,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U78" t="b">
-        <v>0</v>
+      <c r="U78" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V78" t="inlineStr">
         <is>
@@ -38008,8 +39380,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M79" t="b">
-        <v>0</v>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O79" s="1" t="inlineStr">
         <is>
@@ -38041,8 +39415,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U79" t="b">
-        <v>0</v>
+      <c r="U79" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V79" t="inlineStr">
         <is>
@@ -38107,8 +39483,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M80" t="b">
-        <v>0</v>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O80" s="1" t="inlineStr">
         <is>
@@ -38140,8 +39518,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U80" t="b">
-        <v>1</v>
+      <c r="U80" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V80" t="inlineStr">
         <is>
@@ -38206,8 +39586,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M81" t="b">
-        <v>0</v>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O81" s="1" t="inlineStr">
         <is>
@@ -38239,8 +39621,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U81" t="b">
-        <v>1</v>
+      <c r="U81" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V81" t="inlineStr">
         <is>
@@ -38305,8 +39689,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M82" t="b">
-        <v>0</v>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O82" t="inlineStr">
         <is>
@@ -38338,8 +39724,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U82" t="b">
-        <v>0</v>
+      <c r="U82" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V82" t="inlineStr">
         <is>
@@ -38404,8 +39792,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M83" t="b">
-        <v>0</v>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O83" t="inlineStr">
         <is>
@@ -38437,8 +39827,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U83" t="b">
-        <v>0</v>
+      <c r="U83" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V83" t="inlineStr">
         <is>
@@ -38503,8 +39895,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M84" t="b">
-        <v>0</v>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O84" t="inlineStr">
         <is>
@@ -38536,8 +39930,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U84" t="b">
-        <v>1</v>
+      <c r="U84" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V84" t="inlineStr">
         <is>
@@ -38602,8 +39998,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M85" t="b">
-        <v>0</v>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O85" t="inlineStr">
         <is>
@@ -38635,8 +40033,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U85" t="b">
-        <v>1</v>
+      <c r="U85" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V85" t="inlineStr">
         <is>
@@ -38701,8 +40101,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M86" t="b">
-        <v>0</v>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O86" t="inlineStr">
         <is>
@@ -38734,8 +40136,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U86" t="b">
-        <v>1</v>
+      <c r="U86" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V86" t="inlineStr">
         <is>
@@ -38800,8 +40204,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M87" t="b">
-        <v>0</v>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O87" s="1" t="inlineStr">
         <is>
@@ -38833,8 +40239,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U87" t="b">
-        <v>0</v>
+      <c r="U87" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V87" t="inlineStr">
         <is>
@@ -38899,8 +40307,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M88" t="b">
-        <v>0</v>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O88" s="1" t="inlineStr">
         <is>
@@ -38932,8 +40342,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U88" t="b">
-        <v>0</v>
+      <c r="U88" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V88" t="inlineStr">
         <is>
@@ -38998,8 +40410,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M89" t="b">
-        <v>0</v>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O89" s="1" t="inlineStr">
         <is>
@@ -39031,8 +40445,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U89" t="b">
-        <v>0</v>
+      <c r="U89" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V89" t="inlineStr">
         <is>
